--- a/AgileArtifacts/Issues Report - Backlog from Taiga.xlsx
+++ b/AgileArtifacts/Issues Report - Backlog from Taiga.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billie\defender\AgileArtifacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tpetruccelli\Documents\GSA\Agile Vehicle (out of 18F)\Final Staging\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22485" windowHeight="9675"/>
   </bookViews>
   <sheets>
-    <sheet name="issues (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="issues" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
   <si>
     <t>ref</t>
   </si>
@@ -30,21 +30,9 @@
     <t>description</t>
   </si>
   <si>
-    <t>milestone</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>owner_full_name</t>
   </si>
   <si>
-    <t>assigned_to</t>
-  </si>
-  <si>
-    <t>assigned_to_full_name</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -60,19 +48,10 @@
     <t>is_closed</t>
   </si>
   <si>
-    <t>attachments</t>
-  </si>
-  <si>
-    <t>external_reference</t>
-  </si>
-  <si>
     <t>tags</t>
   </si>
   <si>
     <t>get latest version deployed - resolve build conflicts</t>
-  </si>
-  <si>
-    <t>bschwetz-1</t>
   </si>
   <si>
     <t>Billie</t>
@@ -133,12 +112,6 @@
     <t>The system does not display "Good news, no Affected areas!" when searching for recalls as per the requirement- user story 45</t>
   </si>
   <si>
-    <t>dkamal1</t>
-  </si>
-  <si>
-    <t>David Kamal</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
@@ -167,6 +140,24 @@
   </si>
   <si>
     <t>raise to po</t>
+  </si>
+  <si>
+    <t>Several recalls that appear in the default search results that have an initiation date of 2012 show up as recalls in the past 90 days.</t>
+  </si>
+  <si>
+    <t>There are several recalls that appear in the default search results that have an initiation date of 2012 that show up as recalls in the past 90 days. When I manually run the query for the last 90 days, I donâ€™t get these recalls. Was this query changed?
+I am running the following recalls query  for food 
+https://api.fda.gov/food/enforcement.json?search=report_date:[20150328+TO+20150628]&amp;limit=100
+Example of food recalls that appear on the page that are not returned by the 90 day query include Recall( #F-0283-2013 Recall Initiation Date 09/10/2012 Recalling Firm Spartan Central Kitchen) and Recall (#F-2448-2012 Recall Initiation Date 08/28/2012 Recalling Firm Sadie's Salads)</t>
+  </si>
+  <si>
+    <t>When no results are found during a recall search, the Top Regions section returns a browser error â€œThe Website Cannot display the Pageâ€</t>
+  </si>
+  <si>
+    <t>The mascot is not updated to cross armed as per the acceptance criteria</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
 </sst>
 </file>
@@ -650,9 +641,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -976,430 +971,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="G1:H1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="107.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7265625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="76.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>114</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="b">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>115</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
       <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>116</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="b">
+      <c r="I4" t="b">
         <v>1</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>198</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
-        <v>19</v>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>199</v>
       </c>
-      <c r="B6" t="s">
-        <v>32</v>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" t="s">
-        <v>19</v>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>200</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" t="b">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="b">
         <v>0</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>206</v>
       </c>
-      <c r="B8" t="s">
-        <v>38</v>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>207</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="I9" t="s">
-        <v>19</v>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>208</v>
       </c>
-      <c r="B10" t="s">
-        <v>41</v>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="s">
-        <v>19</v>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>229</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>233</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>46</v>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>234</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>235</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
